--- a/Buyer hub/Reports/Manual testcases/Reports Spending per outlet.xlsx
+++ b/Buyer hub/Reports/Manual testcases/Reports Spending per outlet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Reports\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Reports\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F6FD09-DE12-479D-A663-05FC7C167DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6852A7F2-27C1-4797-8FD1-1FC734D0CCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t>SL. No</t>
   </si>
@@ -601,6 +601,62 @@
   </si>
   <si>
     <t>It gets displayed the Outlet nameon top, Calendar picker, View by week, Total spending and Invoice</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filter-&gt;Outlets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It should show List of Outlets and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select all and Deselect all and Apply or Reset'</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Once click the selected option and Apply It will display the Details of selected outlets                                                                             2.if you select Reset it will back to normal page</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,70 +1501,68 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+    <row r="19" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -1516,24 +1570,47 @@
     </row>
     <row r="22" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Buyer hub/Reports/Manual testcases/Reports Spending per outlet.xlsx
+++ b/Buyer hub/Reports/Manual testcases/Reports Spending per outlet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Reports\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6852A7F2-27C1-4797-8FD1-1FC734D0CCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1CA063-1AE7-47A4-8B03-22AD246700CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,7 +1502,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1524,7 +1526,7 @@
     </row>
     <row r="20" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -1547,7 +1549,7 @@
     </row>
     <row r="21" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
@@ -1570,7 +1572,7 @@
     </row>
     <row r="22" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
@@ -1593,7 +1595,7 @@
     </row>
     <row r="23" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>

--- a/Buyer hub/Reports/Manual testcases/Reports Spending per outlet.xlsx
+++ b/Buyer hub/Reports/Manual testcases/Reports Spending per outlet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Reports\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1CA063-1AE7-47A4-8B03-22AD246700CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4E3711-D70F-4F0E-BBF7-3C81B53BCF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -779,14 +779,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1069,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1226,7 +1219,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1249,7 +1242,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1272,7 +1265,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1295,7 +1288,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1318,7 +1311,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1341,7 +1334,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1350,13 +1343,13 @@
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G12" t="s">
@@ -1364,7 +1357,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1373,21 +1366,21 @@
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1396,13 +1389,13 @@
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G14" t="s">
@@ -1410,7 +1403,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1419,13 +1412,13 @@
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G15" t="s">
@@ -1433,7 +1426,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1442,13 +1435,13 @@
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G16" t="s">
@@ -1456,7 +1449,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1465,13 +1458,13 @@
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G17" t="s">
@@ -1479,7 +1472,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1488,10 +1481,10 @@
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -1502,7 +1495,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1511,10 +1504,10 @@
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>70</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -1525,7 +1518,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1534,10 +1527,10 @@
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -1548,7 +1541,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1557,10 +1550,10 @@
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -1571,7 +1564,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1580,10 +1573,10 @@
       <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -1594,7 +1587,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1603,10 +1596,10 @@
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F23" s="6" t="s">
